--- a/data/long_dif/P23_9-Urba-long_dif.xlsx
+++ b/data/long_dif/P23_9-Urba-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>32,95%</t>
+          <t>33,81%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>29,85%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,21%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,86%</t>
+          <t>27,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>38,62%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25,33%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30,81%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>34,45%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,91; 32,5</t>
+          <t>23,05; 34,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28,1; 39,36</t>
+          <t>28,78; 40,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,92; 27,25</t>
+          <t>23,05; 35,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,73; 32,13</t>
+          <t>18,82; 26,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,71; 28,32</t>
+          <t>24,21; 31,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,64; 34,22</t>
+          <t>33,67; 43,83</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>22,08; 28,61</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>27,69; 34,38</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>30,2; 38,18</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>40,59%</t>
+          <t>39,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>42,31%</t>
+          <t>41,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>44,85%</t>
+          <t>42,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42,65%</t>
+          <t>44,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>42,77%</t>
+          <t>43,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,49%</t>
+          <t>40,43%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>42,38%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>42,45%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>41,6%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,41; 47,02</t>
+          <t>34,5; 47,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,18; 47,7</t>
+          <t>36,38; 46,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,37; 49,98</t>
+          <t>34,53; 49,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>38,9; 46,59</t>
+          <t>40,51; 49,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,55; 46,8</t>
+          <t>39,01; 46,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,38; 45,68</t>
+          <t>35,22; 45,6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>38,78; 46,71</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39,29; 45,64</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>37,12; 45,75</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>32,19%</t>
+          <t>27,27%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>32,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>28,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,0%</t>
+          <t>20,95%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>32,29%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26,74%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>23,95%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,42; 38,42</t>
+          <t>27,03; 36,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,53; 29,99</t>
+          <t>20,41; 29,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,23; 36,44</t>
+          <t>20,91; 40,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,56; 32,76</t>
+          <t>28,61; 37,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,28; 35,96</t>
+          <t>25,5; 32,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,09; 29,86</t>
+          <t>17,1; 25,6</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>28,54; 35,53</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>24,12; 29,63</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20,44; 31,4</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,38%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,41; 32,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,05; 36,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,67; 24,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,87; 34,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,73; 27,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,26; 33,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>44,27%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>30,51%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>45,45%</t>
+          <t>33,1%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>45,06%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>44,86%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>44,81%</t>
+          <t>33,08%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23,37%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>30,38%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>33,09%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>38,18; 52,28</t>
+          <t>20,64; 32,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>39,18; 49,88</t>
+          <t>25,61; 35,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39,82; 51,16</t>
+          <t>27,42; 39,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>40,49; 49,91</t>
+          <t>16,9; 25,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>40,42; 49,54</t>
+          <t>26,3; 34,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,04; 48,48</t>
+          <t>28,12; 39,08</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20,09; 27,11</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>27,13; 34,11</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>28,92; 37,3</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>43,87%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>44,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>34,07%</t>
+          <t>47,62%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>45,02%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>31,77%</t>
+          <t>45,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>42,98%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>44,45%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>44,92%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>45,33%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,86; 35,25</t>
+          <t>37,39; 50,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,47; 30,11</t>
+          <t>39,47; 50,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,99; 39,55</t>
+          <t>39,97; 54,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,01; 29,17</t>
+          <t>39,83; 50,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,88; 35,66</t>
+          <t>40,78; 49,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,18; 28,41</t>
+          <t>37,89; 48,19</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>40,06; 48,86</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>41,34; 48,63</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>41,17; 49,79</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>29,99%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>19,29%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>30,86%</t>
+          <t>34,36%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>24,74%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>34,96%</t>
+          <t>23,94%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>32,18%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>24,7%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>21,58%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,51; 29,52</t>
+          <t>24,71; 36,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>29,41; 50,35</t>
+          <t>20,05; 29,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,15; 35,28</t>
+          <t>14,37; 28,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,74; 39,64</t>
+          <t>29,33; 39,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,79; 30,12</t>
+          <t>21,24; 28,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>28,71; 42,63</t>
+          <t>19,45; 28,93</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>28,4; 36,48</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>21,75; 27,89</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>18,0; 26,2</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>35,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>40,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>38,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>43,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>36,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>41,95%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>24,96; 47,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>29,45; 51,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>28,11; 48,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>34,82; 52,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>29,21; 44,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>34,44; 48,42</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>45,78%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>40,0%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>35,9%</t>
+          <t>36,11%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>25,43%</t>
+          <t>25,45%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>40,98%</t>
+          <t>30,54%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>29,52%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>21,95%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>35,44%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>32,78%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>33,24; 58,29</t>
+          <t>11,47; 28,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13,83; 29,43</t>
+          <t>30,77; 51,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>27,19; 47,24</t>
+          <t>21,14; 60,86</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>18,51; 34,72</t>
+          <t>17,5; 36,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>32,9; 49,37</t>
+          <t>22,43; 39,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>17,58; 28,93</t>
+          <t>20,37; 40,61</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>16,15; 29,34</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>28,49; 42,59</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>24,02; 48,1</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>34,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>32,72%</t>
+          <t>39,87%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>40,9%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>38,24%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>44,12%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>50,18%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>36,06%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>41,92%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>45,58%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>22,3; 29,75</t>
+          <t>23,59; 47,08</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>29,51; 36,52</t>
+          <t>30,63; 50,56</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>19,72; 25,15</t>
+          <t>25,28; 56,3</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>26,59; 32,05</t>
+          <t>29,28; 47,95</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>21,62; 26,32</t>
+          <t>35,65; 53,67</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>28,8; 33,4</t>
+          <t>39,45; 60,96</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>28,49; 43,29</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>35,21; 49,3</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>35,49; 55,87</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>41,38%</t>
+          <t>47,35%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>42,96%</t>
+          <t>20,13%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>44,31%</t>
+          <t>22,99%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>43,7%</t>
+          <t>36,3%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>42,86%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>43,33%</t>
+          <t>20,3%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>41,99%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>22,64%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>21,63%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>37,1; 45,51</t>
+          <t>34,84; 61,55</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>39,18; 46,7</t>
+          <t>13,5; 28,46</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>41,14; 47,76</t>
+          <t>12,58; 35,93</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>40,94; 46,82</t>
+          <t>27,19; 46,87</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>40,43; 45,5</t>
+          <t>18,48; 33,72</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>41,23; 45,78</t>
+          <t>12,13; 30,06</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>34,67; 51,5</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>17,23; 28,87</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>14,84; 29,11</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>32,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>24,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>33,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +1859,495 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>29,18; 36,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>21,4; 27,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>30,2; 36,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>24,45; 29,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>30,75; 36,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,64; 27,91</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>26,19%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>33,25%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>31,91%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>22,17%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>29,14%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>35,46%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>24,16%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>31,18%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>33,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>22,92; 30,51</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>29,49; 37,41</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>27,43; 36,52</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>19,64; 24,95</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>26,4; 31,9</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>32,06; 38,94</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>21,91; 26,48</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>29,17; 33,83</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>31,0; 36,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>40,72%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>42,75%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>44,56%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>44,16%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>43,94%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>42,53%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>42,46%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>43,35%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>43,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>36,89; 44,93</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>38,66; 46,23</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>39,48; 49,01</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>40,55; 47,27</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>41,01; 47,17</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>39,2; 46,3</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>39,87; 44,96</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>40,99; 45,55</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>40,69; 46,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>33,1%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>23,99%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>23,53%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>33,67%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>26,92%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>22,01%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>33,39%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>25,46%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>22,75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>29,38; 37,2</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>21,47; 27,06</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>19,72; 31,36</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>30,49; 36,87</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>24,25; 29,28</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>19,05; 25,0</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>31,13; 36,17</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>23,38; 27,58</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>20,33; 26,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
